--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cd177-Pecam1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cd177-Pecam1.xlsx
@@ -537,10 +537,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.07030599999999999</v>
+        <v>0.03955433333333334</v>
       </c>
       <c r="H2">
-        <v>0.210918</v>
+        <v>0.118663</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>343.9479473333333</v>
+        <v>361.2779286666667</v>
       </c>
       <c r="N2">
-        <v>1031.843842</v>
+        <v>1083.833786</v>
       </c>
       <c r="O2">
-        <v>0.9666099193889262</v>
+        <v>0.9679392703861037</v>
       </c>
       <c r="P2">
-        <v>0.966609919388926</v>
+        <v>0.9679392703861038</v>
       </c>
       <c r="Q2">
-        <v>24.18160438521733</v>
+        <v>14.29010761645756</v>
       </c>
       <c r="R2">
-        <v>217.634439466956</v>
+        <v>128.610968548118</v>
       </c>
       <c r="S2">
-        <v>0.9666099193889262</v>
+        <v>0.9679392703861037</v>
       </c>
       <c r="T2">
-        <v>0.966609919388926</v>
+        <v>0.9679392703861038</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,10 +599,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.07030599999999999</v>
+        <v>0.03955433333333334</v>
       </c>
       <c r="H3">
-        <v>0.210918</v>
+        <v>0.118663</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>17.910552</v>
       </c>
       <c r="O3">
-        <v>0.01677823379880302</v>
+        <v>0.015995373883918</v>
       </c>
       <c r="P3">
-        <v>0.01677823379880302</v>
+        <v>0.015995373883918</v>
       </c>
       <c r="Q3">
-        <v>0.419739756304</v>
+        <v>0.2361466479973333</v>
       </c>
       <c r="R3">
-        <v>3.777657806736</v>
+        <v>2.125319831976</v>
       </c>
       <c r="S3">
-        <v>0.01677823379880302</v>
+        <v>0.015995373883918</v>
       </c>
       <c r="T3">
-        <v>0.01677823379880302</v>
+        <v>0.015995373883918</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,10 +661,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.07030599999999999</v>
+        <v>0.03955433333333334</v>
       </c>
       <c r="H4">
-        <v>0.210918</v>
+        <v>0.118663</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.239611333333334</v>
+        <v>3.890485666666667</v>
       </c>
       <c r="N4">
-        <v>9.718834000000001</v>
+        <v>11.671457</v>
       </c>
       <c r="O4">
-        <v>0.009104402204005551</v>
+        <v>0.01042342628440887</v>
       </c>
       <c r="P4">
-        <v>0.00910440220400555</v>
+        <v>0.01042342628440887</v>
       </c>
       <c r="Q4">
-        <v>0.2277641144013333</v>
+        <v>0.1538855668878889</v>
       </c>
       <c r="R4">
-        <v>2.049877029612</v>
+        <v>1.384970101991</v>
       </c>
       <c r="S4">
-        <v>0.009104402204005551</v>
+        <v>0.01042342628440887</v>
       </c>
       <c r="T4">
-        <v>0.00910440220400555</v>
+        <v>0.01042342628440887</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.07030599999999999</v>
+        <v>0.03955433333333334</v>
       </c>
       <c r="H5">
-        <v>0.210918</v>
+        <v>0.118663</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.671367333333334</v>
+        <v>2.105818666666667</v>
       </c>
       <c r="N5">
-        <v>8.014102000000001</v>
+        <v>6.317456</v>
       </c>
       <c r="O5">
-        <v>0.007507444608265281</v>
+        <v>0.005641929445569353</v>
       </c>
       <c r="P5">
-        <v>0.00750744460826528</v>
+        <v>0.005641929445569354</v>
       </c>
       <c r="Q5">
-        <v>0.1878131517373333</v>
+        <v>0.0832942534808889</v>
       </c>
       <c r="R5">
-        <v>1.690318365636</v>
+        <v>0.749648281328</v>
       </c>
       <c r="S5">
-        <v>0.007507444608265281</v>
+        <v>0.005641929445569353</v>
       </c>
       <c r="T5">
-        <v>0.00750744460826528</v>
+        <v>0.005641929445569354</v>
       </c>
     </row>
   </sheetData>
